--- a/data/financial_statements/socf/HBAN.xlsx
+++ b/data/financial_statements/socf/HBAN.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,2069 +593,2072 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>594000000</v>
+        <v>-1600000000</v>
       </c>
       <c r="C2">
-        <v>539000000</v>
+        <v>597000000</v>
       </c>
       <c r="D2">
-        <v>460000000</v>
+        <v>541000000</v>
       </c>
       <c r="E2">
-        <v>401000000</v>
+        <v>462000000</v>
       </c>
       <c r="F2">
-        <v>377000000</v>
+        <v>402000000</v>
       </c>
       <c r="G2">
+        <v>378000000</v>
+      </c>
+      <c r="H2">
         <v>-15000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>532000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>316000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>303000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>150000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>48000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>317000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>372000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>364000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>358000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>334000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>378000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>355000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>326000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>432000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>274000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>272000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>208000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>239142000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>127004000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>174540000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>171314000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>178352000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>152588000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>196206000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>165854000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>163614000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>155016000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>164619000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>149143000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>158172000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>178836000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>151000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>153274000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>148000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>95000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>112000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>92000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>25000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>203000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>71000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>109000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>80000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>59000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>119000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>78000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>104000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>73000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>131000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>143000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>122000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>123000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>105000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>106000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>96000000</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>211000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>80556000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>91195000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>103146000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>105103000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>78212000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>94831000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>72293000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>95664000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>93858000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>86107000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>70852000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>85015000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>71234000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>74947000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>68187000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>67177000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>181000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>146000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>117000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-148000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-25000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>222000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>29000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>150000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>140000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>323000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>419000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>127000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>63000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>104000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>99000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>17000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>54000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>131000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>174000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>216000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>88000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>111000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>46000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>277317000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>71657000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>38542000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>34484000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>105691000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>22670000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>73420000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>17219000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>35516000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>57692000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>49043000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>24000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>78034000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>4259000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>63676000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>86687000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-21000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>24000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>461000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>59000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-165000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>456000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-406000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-139000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-214000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-161000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-20000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>142000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-259000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-169000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>72000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>83000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-110000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-247000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-27000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>176000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>57000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-245000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>24000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>71735000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>113145000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-268378000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-39502000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>321494000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-25383000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-43335000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-198776000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3092000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-33841000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-9307000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-18747000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>11264000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>110146000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-40682000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>46640000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>3000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>40000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-28000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>31000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>16000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-42000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>11000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-8000000</v>
-      </c>
-      <c r="J6">
-        <v>-9000000</v>
       </c>
       <c r="K6">
         <v>-9000000</v>
       </c>
       <c r="L6">
+        <v>-9000000</v>
+      </c>
+      <c r="M6">
         <v>63000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>19000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>20000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-10000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-61000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-14000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2000000</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>1000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>6000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>4000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>35000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-96926000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-782000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>10635000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-8927000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1418000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>20537000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-11520000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-5435000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>24269000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-15919000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-10102000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-4866000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>38594000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>6760000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>5593000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>4685000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7">
         <v>102000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>128000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-188000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>73942000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>96134000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-25580000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-45344000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>94856000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-53838000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-30674000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>220414000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>46581000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>47714000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-32635000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-204197000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>50458000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-47299000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-134700000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8">
         <v>-41066000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>-77000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>134000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-273000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>185000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>363000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>193000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-348000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-365000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>248000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-146000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-131000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-34000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-263000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>6000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-108000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-103000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>93000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>83000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-286000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-50000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-79000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-112000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>54000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>77453000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-72119000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-97334000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-18308000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-40225000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-117241000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-58226000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-281203000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-49009000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-86184000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-21970000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>46850000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-21200000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-3296000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-11854000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>15000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-5000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-2000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-124000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-15000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>82000000</v>
-      </c>
-      <c r="I10">
-        <v>1000000</v>
       </c>
       <c r="J10">
         <v>1000000</v>
       </c>
       <c r="K10">
+        <v>1000000</v>
+      </c>
+      <c r="L10">
         <v>-4000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>27000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>9000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-13000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>6000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>122000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-137000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>8000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>3000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>5000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>6000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>24413000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-4874000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-3503000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-4036000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>10659000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-5143000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-11633000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-3883000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>846000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>975000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>849000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>497000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>577000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1099000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-111000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>64000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>549000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>212000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>498000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>676000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>46000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>355000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>497000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>582000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>542000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>308000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>294000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>848000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>547000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>163000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>396000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>529194000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>399168000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>94848000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>191790000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>632174000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>314731000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>104352000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-18257000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>259560000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>246627000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>226635000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>155964000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>199951000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>404206000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>197179000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>211909000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-42000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-50000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-73000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-90000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-58000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-77000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-22000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-37000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-33000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-38000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-11000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-25000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-31000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-27000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-24000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-48000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-24000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-22000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-16000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-49000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-32000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-58000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-55000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-56312000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-43842000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-7689000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-12157000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-23979000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-25928000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-29999000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-13094000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-27303000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-8964000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-11982000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-10613000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-13108000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-39973000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-25185000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-23942000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>-223000000</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>-618000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>466000000</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>7000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-555000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-15000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-479782000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-133218000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-164000</v>
       </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
         <v>-457836000</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
       <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
         <v>705089000</v>
       </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
         <v>-13452000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-34000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-67000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>388000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>105000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>196000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>226000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>189000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-1000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-53000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-1000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-26000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>9000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>16000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-26000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-111000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>28000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>6000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>34000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>22000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>18000000</v>
-      </c>
-      <c r="V14">
-        <v>2000000</v>
       </c>
       <c r="W14">
         <v>2000000</v>
       </c>
       <c r="X14">
+        <v>2000000</v>
+      </c>
+      <c r="Y14">
         <v>17000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-7221000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>26279000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>21772000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-14830000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>14246000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>5604000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2621000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-9471000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>8339000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-3264000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1597000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-14188000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>42803000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>17301000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>49188000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>37292000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>-107000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-244000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-3435000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-3056000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-4023000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1731000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-2047000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-2062000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-680000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2159000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-1390000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-705000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-215000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>615000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-202000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>35000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>507000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>576000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>330000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-477000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-521000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>87000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-336000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-1984351100</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>846122100</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-6785000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-263986000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-794931000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-636190900</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-350102100</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-438776000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-518732800</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-126536200</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-596009000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-226382000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-1886331900</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>304638900</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>85844000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>100037000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>-958000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-3266000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-2235000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-1710000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1306000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2016000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1504000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-387000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-1017000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-2167000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-2895000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-393000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>39000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-71000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-178000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-1686000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-1008000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-1270000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-1112000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-1656000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-571000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-875000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-362000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1942653000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-959335000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-1013848000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-1298470000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-864500000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-1081254000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>24383000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-249629000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-933494000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-752660000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-1784343000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-691883000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-1170928000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-888812000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-200089000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-629068000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>-1141000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-3850000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-5355000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-4751000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-3197000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>4362000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-376000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-2487000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-1783000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-47000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-4322000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-1114000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-184000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-64000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-515000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-1686000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-519000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-682000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-776000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-2164000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-1122000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-844000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-736000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-585013000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-263994000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-1006550000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-1589443000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-1669328000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-1737769000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-353097000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-1168806000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-1471191000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-186335000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-2390737000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-956518000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-3027565000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-606845000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-90242000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-515681000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>134000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>4063000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>63000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-809000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>554000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-2572000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-1047000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-863000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-570000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-2810000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>204000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>390000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-1104000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>855000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1498000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-237000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-1375000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>771000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-2753000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>3289000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-2031000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>2508000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-1452000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>992585000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-371517000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1450678000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>681254000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-88672100</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>396121100</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>180848000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-112297000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>34882000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-944802000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>3166503000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-336807000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1826024800</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>144619000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>704905200</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-673077000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19">
         <v>-150000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-500000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-4000000</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>-88000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-196000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-68000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-152000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-25000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-200000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-691000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-51000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>3000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-137000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-129000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>5000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2197000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2761000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1126000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-14664000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-74006000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-96423000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-47907000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-33699000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-45631000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-104768000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-130024000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>12601000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-16197000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-75198000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-33600000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
         <v>-100000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-599000000</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>485000000</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
-        <v>494000000</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>494000000</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
+      <c r="L20">
+        <v>494000000</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2550,525 +2667,525 @@
         <v>0</v>
       </c>
       <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>495000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>64000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-51000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>198639000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>386348000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>-252000000</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C21">
         <v>-252000000</v>
       </c>
       <c r="D21">
+        <v>-252000000</v>
+      </c>
+      <c r="E21">
         <v>-253000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-248000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-266000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-186000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-188000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-183000000</v>
-      </c>
-      <c r="J21">
-        <v>-171000000</v>
       </c>
       <c r="K21">
         <v>-171000000</v>
       </c>
       <c r="L21">
+        <v>-171000000</v>
+      </c>
+      <c r="M21">
         <v>-173000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-174000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-165000000</v>
-      </c>
-      <c r="O21">
-        <v>-166000000</v>
       </c>
       <c r="P21">
         <v>-166000000</v>
       </c>
       <c r="Q21">
+        <v>-166000000</v>
+      </c>
+      <c r="R21">
         <v>-171000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-143000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-133000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-137000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-106000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-107000000</v>
-      </c>
-      <c r="W21">
-        <v>-106000000</v>
       </c>
       <c r="X21">
         <v>-106000000</v>
       </c>
       <c r="Y21">
+        <v>-106000000</v>
+      </c>
+      <c r="Z21">
         <v>-83935000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-75106000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-75766000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-64193000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-55527000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-56230000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-56540000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-56703000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-53645000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-46631000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-49403000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-49110000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-49521000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-49444000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-41856000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-41656000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>881000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-1552000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>3698000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1338000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-79000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1963000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3231000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3793000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1463000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>6848000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4478000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-48000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1513000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-566000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-2625000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>3085000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2103000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>100000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2423000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-1404000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>2521000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-1517000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1818000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-1123594100</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1104062100</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-613678000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>362210000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1018224000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>801542000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>700953000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1083281000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>1604796000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>638181000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-603041000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>1288627000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>931983000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>237413000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-529570000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>617987000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>763000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2259000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>3508000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>31000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-890000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-795000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2481000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2743000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1216000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>4361000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>4421000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-28000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>176000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-29000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-1318000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2477000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-106000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>687000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>31000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1642000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>254000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>886000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>265000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-220964000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>659585000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>962634000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>1366745000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>859361000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1067427000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>728838000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>866374000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1552334000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-398883000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2409291000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>772686000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>2721088000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>316391000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>58281000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-130346000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>468000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-616000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-998000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-4223000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-3510000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>4666000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1994000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>320000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-18000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4526000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>597000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-466000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>38000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>262000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-1336000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1373000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-83000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>313000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>-451000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>326000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-321000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>205000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-75000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-276783000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>794759000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>50932000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-30908000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-177793000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-355611000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>480093000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-320689000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>340703000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-338591000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>245189000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-27868000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-106526000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>113752000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>165218000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-434118000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>5522000000</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -3076,11 +3193,11 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>6595000000</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
         <v>0</v>
       </c>
@@ -3088,11 +3205,11 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>1170000000</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
         <v>0</v>
       </c>
@@ -3100,11 +3217,11 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>2672000000</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
       <c r="R25">
         <v>0</v>
       </c>
@@ -3112,11 +3229,11 @@
         <v>0</v>
       </c>
       <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>1520000000</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
         <v>0</v>
       </c>
@@ -3124,35 +3241,35 @@
         <v>0</v>
       </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>1385000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-156000</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>847156000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>435000</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>1220565000</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
       <c r="AH25">
         <v>0</v>
       </c>
@@ -3160,11 +3277,11 @@
         <v>0</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>1001132000</v>
       </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
       <c r="AL25">
         <v>0</v>
       </c>
@@ -3172,747 +3289,753 @@
         <v>0</v>
       </c>
       <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
         <v>1262806000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>468000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-616000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4524000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-4223000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-3510000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4666000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>8589000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>320000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-18000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4526000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1767000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-466000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>38000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>262000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1336000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1373000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-83000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>313000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1069000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>326000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-321000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>205000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1310000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-276939000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>794759000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>50932000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>816248000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-177358000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-355611000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>480093000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>899876000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>340703000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-338591000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>245189000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>973264000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-106526000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>113752000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>165218000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>828688000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>19000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>23000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>40000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>32000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>31000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>38000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>28000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>17000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>20000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>25000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>15000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>19000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>16000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>31000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>17000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>19000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>15000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>29000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>15000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>19000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>21000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>54000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-2000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>17432000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>20769000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>16531000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>11268000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>11864000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>13563000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>14478000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>11095000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>10010000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>10864000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>13374000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>9418000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>9364000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>9747000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>9875000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>8021000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>-224000000</v>
+        <v>673000000</v>
       </c>
       <c r="C28">
         <v>-224000000</v>
       </c>
       <c r="D28">
+        <v>-224000000</v>
+      </c>
+      <c r="E28">
         <v>-225000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-219000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-223000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-155000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-153000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-154000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-153000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-152000000</v>
-      </c>
-      <c r="L28">
-        <v>-155000000</v>
       </c>
       <c r="M28">
         <v>-155000000</v>
       </c>
       <c r="N28">
-        <v>-147000000</v>
+        <v>-155000000</v>
       </c>
       <c r="O28">
         <v>-147000000</v>
       </c>
       <c r="P28">
+        <v>-147000000</v>
+      </c>
+      <c r="Q28">
         <v>-148000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-152000000</v>
-      </c>
-      <c r="R28">
-        <v>-122000000</v>
       </c>
       <c r="S28">
         <v>-122000000</v>
       </c>
       <c r="T28">
+        <v>-122000000</v>
+      </c>
+      <c r="U28">
         <v>-118000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-87000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-88000000</v>
-      </c>
-      <c r="W28">
-        <v>-87000000</v>
       </c>
       <c r="X28">
         <v>-87000000</v>
       </c>
       <c r="Y28">
+        <v>-87000000</v>
+      </c>
+      <c r="Z28">
         <v>-76344000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-56569000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-55892000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-56195000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-47428000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-48262000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-48572000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-48738000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-45682000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-38669000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-41438000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-41146000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-41562000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-41477000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-33886000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-33683000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>0.3139</v>
+        <v>0.2347</v>
       </c>
       <c r="C29">
-        <v>0.3909</v>
+        <v>0.314</v>
       </c>
       <c r="D29">
+        <v>0.3908</v>
+      </c>
+      <c r="E29">
         <v>0.1172</v>
       </c>
-      <c r="E29">
-        <v>0.133</v>
-      </c>
       <c r="F29">
+        <v>0.0988</v>
+      </c>
+      <c r="G29">
         <v>-0.0907</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-0.3915</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-0.079</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.2857</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.3171</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.3787</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.2785</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.8642</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.5416</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.4883</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.5634</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.4495</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.4916</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.5022</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.4665</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.4769</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.516</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.4652</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.5369</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.5589</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.7834</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.9785</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.9229000000000001</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.6871</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.6161</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.476</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.4624</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.3488</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.5293</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.6546</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.2505</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.1695</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.1611</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.1643</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.08790000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>-95000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>198000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>160000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>275000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>214000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>607000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-743000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-512000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>25000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-316000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-88000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>127000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-502000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-173000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-97000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-34000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-15000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-164000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-312000000</v>
-      </c>
-      <c r="U30">
-        <v>86000000</v>
       </c>
       <c r="V30">
         <v>86000000</v>
       </c>
       <c r="W30">
+        <v>86000000</v>
+      </c>
+      <c r="X30">
         <v>-225000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-75000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-92234000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>114186000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-217877000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-115075000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>259260000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>49785000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-225934000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-293111000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-33428000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-52188000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-57879000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-78218000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-107489000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>146164000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-85684000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-95229000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>-141000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-311000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-3047000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-2951000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-3827000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1957000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-1858000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-2063000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-733000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2158000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-1416000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-696000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-199000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>589000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-313000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>63000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>513000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>610000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>352000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-459000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-519000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>89000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-319000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-1991572100</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>872401100</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>14987000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-278816000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-780685000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-630587000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-347481000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-448247000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-510393800</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-129800200</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-594412000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-240570000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-1843528900</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>321939900</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>135032000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>137329000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>-28000000</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C32">
         <v>-28000000</v>
@@ -3921,52 +4044,52 @@
         <v>-28000000</v>
       </c>
       <c r="E32">
+        <v>-28000000</v>
+      </c>
+      <c r="F32">
         <v>-29000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-43000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-31000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-35000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-29000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-18000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-19000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-18000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-19000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-18000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-19000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-18000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-19000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-21000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-11000000</v>
-      </c>
-      <c r="T32">
-        <v>-19000000</v>
       </c>
       <c r="U32">
         <v>-19000000</v>
@@ -3981,277 +4104,280 @@
         <v>-19000000</v>
       </c>
       <c r="Y32">
+        <v>-19000000</v>
+      </c>
+      <c r="Z32">
         <v>-7591000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-18537000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-19874000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-7998000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-8099000</v>
-      </c>
-      <c r="AD32">
-        <v>-7968000</v>
       </c>
       <c r="AE32">
         <v>-7968000</v>
       </c>
       <c r="AF32">
+        <v>-7968000</v>
+      </c>
+      <c r="AG32">
         <v>-7965000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-7963000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-7962000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-7965000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-7964000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-7959000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-7967000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-7970000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-7973000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33">
         <v>-250000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-1099000000</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>485000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-4000000</v>
-      </c>
-      <c r="J33">
-        <v>494000000</v>
       </c>
       <c r="K33">
         <v>494000000</v>
       </c>
       <c r="L33">
+        <v>494000000</v>
+      </c>
+      <c r="M33">
         <v>-88000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-196000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-68000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-152000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-25000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-200000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-691000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-51000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>498000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-137000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-129000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>1000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>5000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-6020000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>2146000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>201400000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>387474000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-14664000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-74006000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-96423000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-47907000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-33699000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-45631000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-104768000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-130024000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>12601000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-16197000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-75198000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-33600000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34">
         <v>-250000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-1099000000</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>485000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-4000000</v>
-      </c>
-      <c r="J34">
-        <v>494000000</v>
       </c>
       <c r="K34">
         <v>494000000</v>
       </c>
       <c r="L34">
+        <v>494000000</v>
+      </c>
+      <c r="M34">
         <v>-88000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-196000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-68000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-152000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-25000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-200000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>-691000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-51000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>498000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-137000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-129000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>1000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>5000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>64000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>2146000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>201400000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>387474000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-14664000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-74006000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>-96423000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>-47907000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>-33699000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>-45631000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>-104768000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>-130024000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>12601000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>-16197000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-75198000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-33600000</v>
       </c>
     </row>
